--- a/Testing/F_TestCases_User.xlsx
+++ b/Testing/F_TestCases_User.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="586">
   <si>
     <t>General preconditions</t>
   </si>
@@ -648,6 +648,10 @@
 "Please enter a valid phone number in 11 digits starting with 01"</t>
   </si>
   <si>
+    <t>an error message appeared
+"Please enter a valid phone number in 11 digits starting with 01"</t>
+  </si>
+  <si>
     <t>TC_F_Reg_User_018</t>
   </si>
   <si>
@@ -663,6 +667,10 @@
 Confirm Password:"Fathi@400".
 Address:"23elzohoorstreetCairoEgypt"
 Phone:"012456789125"</t>
+  </si>
+  <si>
+    <t>an error message appeared
+"Please enter a valid phone number in 11 digits starting with 01"</t>
   </si>
   <si>
     <t>TC_F_Reg_User_019</t>
@@ -724,6 +732,36 @@
   <si>
     <t>It directed to the user sign in 
 page</t>
+  </si>
+  <si>
+    <t>TC_F_Reg_User_022</t>
+  </si>
+  <si>
+    <t>validate that userName is unique</t>
+  </si>
+  <si>
+    <t>"- Acess Foodies web app.
+- From the Home page click on Register button.
+- Enter Full name.
+- Enter a duplicated User Name.
+- Enter User mail.
+- Enter password.
+- Enter confirm password.
+- Enter the address.
+- Enter Phone number.
+- Click on register button."</t>
+  </si>
+  <si>
+    <t>Full Name:"yousry Fathi"
+User Name:"Fathi40".
+User mail:"fathi34340@gmail.com"
+Password:"Fathi@400"
+Confirm Password:"Fathi@400".
+Address:"23elzohoorstreetCairoEgypt"
+Phone:"01478523692"</t>
+  </si>
+  <si>
+    <t>An error message will appear "username already taken"</t>
   </si>
   <si>
     <t>ID</t>
@@ -1446,7 +1484,7 @@
   <si>
     <t>offer code=" 60"
 Discount amount="150 "
-resturant name="KFC"</t>
+resturant name="Cinnnabon"</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1472,67 +1510,25 @@
 2- user cridential</t>
   </si>
   <si>
+    <t xml:space="preserve">
+Discount amount="150 "
+resturant name="Cinnnabon"</t>
+  </si>
+  <si>
     <t xml:space="preserve">1- login as a user 
-2- Choose the restaurant to which 
-the offer is added
-3-click on the dropdown list 
+2- Click on offers link in nav bar
+3-click on the dropdown list.
 </t>
   </si>
   <si>
     <t xml:space="preserve">The offer has been added to the 
-KFC restaurant </t>
+Cinnnabon restaurant </t>
   </si>
   <si>
     <t>22/5</t>
   </si>
   <si>
     <t>TC_F_AddOffer_Admin_003</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">verify that </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">Add </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>button redirected to 
-Admin home page</t>
-    </r>
-  </si>
-  <si>
-    <t>offer code=" 40"
-Discount amount="50 
-"resturant name="KFC"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1-click on Add Offer button 
-2-select the resturant
-3-enter offer code
-4-enter Discount amount
-5-click Add button
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1-redirected to admin homa page</t>
-  </si>
-  <si>
-    <t>TC_F_AddOffer_Admin_004</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1545,12 +1541,26 @@
 resturant name="KFC"</t>
   </si>
   <si>
+    <t xml:space="preserve">
+1-click on Add Offer button 
+2-select the resturant
+3-enter offer code
+4-enter Discount amount
+5-click Add button
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">error message will appear below  the 
 first field saying ” Numbers only,
  please.”  </t>
   </si>
   <si>
-    <t>TC_F_AddOffer_Admin_005</t>
+    <t xml:space="preserve">error message will appear below  the 
+first field saying ” Please match the requested format. Numbers only,
+ please.”  </t>
+  </si>
+  <si>
+    <t>TC_F_AddOffer_Admin_004</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1568,7 +1578,7 @@
  please.”  </t>
   </si>
   <si>
-    <t>TC_F_AddOffer_Admin_006</t>
+    <t>TC_F_AddOffer_Admin_005</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1581,7 +1591,7 @@
 resturant name="KFC"</t>
   </si>
   <si>
-    <t>TC_F_AddOffer_Admin_007</t>
+    <t>TC_F_AddOffer_Admin_006</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1594,7 +1604,7 @@
 resturant name="KFC"</t>
   </si>
   <si>
-    <t>TC_F_AddOffer_Admin_009</t>
+    <t>TC_F_AddOffer_Admin_007</t>
   </si>
   <si>
     <r>
@@ -1636,12 +1646,16 @@
   </si>
   <si>
     <t xml:space="preserve">
-"error message will appear below the 
-second field saying 
+"error message will appear saying 
 ” this field is required. "</t>
   </si>
   <si>
-    <t>TC_F_AddOffer_Admin_010</t>
+    <t xml:space="preserve">
+"error message will appear saying 
+”Please fill in this field"</t>
+  </si>
+  <si>
+    <t>TC_F_AddOffer_Admin_008</t>
   </si>
   <si>
     <r>
@@ -1682,13 +1696,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">
-"error message will appear below the 
-first field saying 
-” this field is required. "</t>
-  </si>
-  <si>
-    <t>TC_F_AddOffer_Admin_011</t>
+    <t>TC_F_AddOffer_Admin_009</t>
   </si>
   <si>
     <r>
@@ -1730,11 +1738,15 @@
   </si>
   <si>
     <t xml:space="preserve">
-"error message will appear below all 
+"error message will appear in all 
 fields saying ” this field is required. "</t>
   </si>
   <si>
-    <t>TC_F_AddOffer_Admin_012</t>
+    <t xml:space="preserve">
+"error message will appear in all fields saying ” this field is required. "</t>
+  </si>
+  <si>
+    <t>TC_F_AddOffer_Admin_010</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1759,7 +1771,7 @@
 ” Please ,Numbers only"</t>
   </si>
   <si>
-    <t>TC_F_AddOffer_Admin_013</t>
+    <t>TC_F_AddOffer_Admin_011</t>
   </si>
   <si>
     <t xml:space="preserve">verify that the Discount amount  field accepts
@@ -1777,7 +1789,7 @@
 ”Please ,Numbers only "</t>
   </si>
   <si>
-    <t>TC_F_AddOffer_Admin_014</t>
+    <t>TC_F_AddOffer_Admin_012</t>
   </si>
   <si>
     <t xml:space="preserve">validate offer code does not accept negative number
@@ -1809,7 +1821,7 @@
     <t>18/5</t>
   </si>
   <si>
-    <t>TC_F_AddOffer_Admin_015</t>
+    <t>TC_F_AddOffer_Admin_013</t>
   </si>
   <si>
     <t xml:space="preserve">validate discount amount does not accept negative 
@@ -1832,7 +1844,7 @@
 ” Please , positive Numbers only"</t>
   </si>
   <si>
-    <t>TC_F_AddOffer_Admin_016</t>
+    <t>TC_F_AddOffer_Admin_014</t>
   </si>
   <si>
     <t xml:space="preserve">validate discount amount and offer code does 
@@ -1856,7 +1868,7 @@
  Numbers only "</t>
   </si>
   <si>
-    <t>TC_F_AddOffer_Admin_017</t>
+    <t>TC_F_AddOffer_Admin_015</t>
   </si>
   <si>
     <r>
@@ -1875,12 +1887,6 @@
       </rPr>
       <t>already exist</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">
-resturant name="KFC"
-offer code="50"
-Discount amount="50"</t>
   </si>
   <si>
     <t xml:space="preserve">pop message will appear that 
@@ -7361,7 +7367,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="65" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B1" s="65" t="s">
         <v>5</v>
@@ -7411,33 +7417,33 @@
     </row>
     <row r="2" ht="66.75" customHeight="1">
       <c r="A2" s="76" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="B2" s="77" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C2" s="76" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="D2" s="76" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="E2" s="76" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="F2" s="76" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="G2" s="76" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="H2" s="77"/>
       <c r="I2" s="77" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="J2" s="77"/>
       <c r="K2" s="77" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="L2" s="70"/>
       <c r="M2" s="70"/>
@@ -7457,33 +7463,33 @@
     </row>
     <row r="3">
       <c r="A3" s="76" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="B3" s="77" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C3" s="76" t="s">
+        <v>396</v>
+      </c>
+      <c r="D3" s="76" t="s">
         <v>391</v>
       </c>
-      <c r="D3" s="76" t="s">
-        <v>386</v>
-      </c>
       <c r="E3" s="76" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="F3" s="76" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="G3" s="76" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="H3" s="77"/>
       <c r="I3" s="78" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="J3" s="77"/>
       <c r="K3" s="77" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="L3" s="70"/>
       <c r="M3" s="70"/>
@@ -7503,33 +7509,33 @@
     </row>
     <row r="4">
       <c r="A4" s="76" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="B4" s="77" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C4" s="76" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="D4" s="76" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="E4" s="76" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="F4" s="76" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="G4" s="76" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="H4" s="77"/>
       <c r="I4" s="78" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="J4" s="77"/>
       <c r="K4" s="77" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="L4" s="70"/>
       <c r="M4" s="70"/>
@@ -7549,33 +7555,33 @@
     </row>
     <row r="5" ht="77.25" customHeight="1">
       <c r="A5" s="76" t="s">
+        <v>404</v>
+      </c>
+      <c r="B5" s="77" t="s">
+        <v>389</v>
+      </c>
+      <c r="C5" s="76" t="s">
+        <v>405</v>
+      </c>
+      <c r="D5" s="76" t="s">
+        <v>391</v>
+      </c>
+      <c r="E5" s="76" t="s">
+        <v>406</v>
+      </c>
+      <c r="F5" s="76" t="s">
+        <v>407</v>
+      </c>
+      <c r="G5" s="76" t="s">
         <v>399</v>
-      </c>
-      <c r="B5" s="77" t="s">
-        <v>384</v>
-      </c>
-      <c r="C5" s="76" t="s">
-        <v>400</v>
-      </c>
-      <c r="D5" s="76" t="s">
-        <v>386</v>
-      </c>
-      <c r="E5" s="76" t="s">
-        <v>401</v>
-      </c>
-      <c r="F5" s="76" t="s">
-        <v>402</v>
-      </c>
-      <c r="G5" s="76" t="s">
-        <v>394</v>
       </c>
       <c r="H5" s="77"/>
       <c r="I5" s="78" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="J5" s="77"/>
       <c r="K5" s="77" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="L5" s="70"/>
       <c r="M5" s="70"/>
@@ -7595,25 +7601,25 @@
     </row>
     <row r="6" ht="77.25" customHeight="1">
       <c r="A6" s="76" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="B6" s="77" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C6" s="79" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="D6" s="76" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="E6" s="76" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="F6" s="76" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="G6" s="76" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="H6" s="77"/>
       <c r="I6" s="78"/>
@@ -7637,29 +7643,29 @@
     </row>
     <row r="7" ht="91.5" customHeight="1">
       <c r="A7" s="76" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="B7" s="77" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C7" s="76" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="D7" s="76" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="E7" s="76" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="F7" s="76" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="G7" s="76" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="H7" s="77"/>
       <c r="I7" s="77" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="J7" s="77"/>
       <c r="K7" s="77"/>
@@ -7681,29 +7687,29 @@
     </row>
     <row r="8" ht="65.25" customHeight="1">
       <c r="A8" s="76" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="B8" s="77" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C8" s="76" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="D8" s="76" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="E8" s="76" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="F8" s="76" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="G8" s="76" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="H8" s="77"/>
       <c r="I8" s="77" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="J8" s="77"/>
       <c r="K8" s="77"/>
@@ -7725,29 +7731,29 @@
     </row>
     <row r="9" ht="87.0" customHeight="1">
       <c r="A9" s="76" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="B9" s="77" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C9" s="76" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="D9" s="76" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="E9" s="76" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="F9" s="76" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="G9" s="76" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="H9" s="77"/>
       <c r="I9" s="77" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="J9" s="77"/>
       <c r="K9" s="77"/>
@@ -7769,29 +7775,29 @@
     </row>
     <row r="10" ht="76.5" customHeight="1">
       <c r="A10" s="76" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="B10" s="77" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C10" s="76" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="D10" s="76" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="G10" s="81" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="H10" s="77"/>
       <c r="I10" s="77" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="J10" s="77"/>
       <c r="K10" s="77"/>
@@ -7813,29 +7819,29 @@
     </row>
     <row r="11" ht="90.0" customHeight="1">
       <c r="A11" s="76" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="B11" s="77" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C11" s="76" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="D11" s="76" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="E11" s="58" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="G11" s="81" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="H11" s="77"/>
       <c r="I11" s="77" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="J11" s="77"/>
       <c r="K11" s="77"/>
@@ -7857,29 +7863,29 @@
     </row>
     <row r="12" ht="75.0" customHeight="1">
       <c r="A12" s="76" t="s">
+        <v>436</v>
+      </c>
+      <c r="B12" s="77" t="s">
+        <v>389</v>
+      </c>
+      <c r="C12" s="76" t="s">
+        <v>437</v>
+      </c>
+      <c r="D12" s="76" t="s">
+        <v>391</v>
+      </c>
+      <c r="E12" s="58" t="s">
+        <v>438</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="G12" s="81" t="s">
         <v>431</v>
-      </c>
-      <c r="B12" s="77" t="s">
-        <v>384</v>
-      </c>
-      <c r="C12" s="76" t="s">
-        <v>432</v>
-      </c>
-      <c r="D12" s="76" t="s">
-        <v>386</v>
-      </c>
-      <c r="E12" s="58" t="s">
-        <v>433</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>434</v>
-      </c>
-      <c r="G12" s="81" t="s">
-        <v>426</v>
       </c>
       <c r="H12" s="77"/>
       <c r="I12" s="77" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="J12" s="77"/>
       <c r="K12" s="77"/>
@@ -7901,29 +7907,29 @@
     </row>
     <row r="13" ht="89.25" customHeight="1">
       <c r="A13" s="76" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="B13" s="77" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C13" s="76" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="D13" s="76" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="E13" s="58" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="G13" s="81" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="H13" s="77"/>
       <c r="I13" s="77" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="J13" s="77"/>
       <c r="K13" s="77"/>
@@ -7945,29 +7951,29 @@
     </row>
     <row r="14" ht="80.25" customHeight="1">
       <c r="A14" s="76" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B14" s="77" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C14" s="76" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="D14" s="76" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="E14" s="76" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="G14" s="81" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="H14" s="77"/>
       <c r="I14" s="77" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="J14" s="77"/>
       <c r="K14" s="77"/>
@@ -7989,29 +7995,29 @@
     </row>
     <row r="15" ht="100.5" customHeight="1">
       <c r="A15" s="76" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="B15" s="76" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="C15" s="76" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="D15" s="76" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="E15" s="76" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="F15" s="16" t="s">
+        <v>454</v>
+      </c>
+      <c r="G15" s="81" t="s">
         <v>449</v>
-      </c>
-      <c r="G15" s="81" t="s">
-        <v>444</v>
       </c>
       <c r="H15" s="77"/>
       <c r="I15" s="77" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="J15" s="77"/>
       <c r="K15" s="77"/>
@@ -8033,29 +8039,29 @@
     </row>
     <row r="16" ht="88.5" customHeight="1">
       <c r="A16" s="76" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="B16" s="76" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="C16" s="76" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="D16" s="76" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="G16" s="81" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="H16" s="77"/>
       <c r="I16" s="77" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="J16" s="77"/>
       <c r="K16" s="77"/>
@@ -8077,29 +8083,29 @@
     </row>
     <row r="17" ht="99.0" customHeight="1">
       <c r="A17" s="76" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="B17" s="77" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C17" s="79" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="D17" s="76" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="E17" s="76" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="G17" s="76" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="H17" s="77"/>
       <c r="I17" s="77" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="J17" s="77"/>
       <c r="K17" s="77"/>
@@ -8174,7 +8180,7 @@
   <sheetData>
     <row r="1" ht="60.75" customHeight="1">
       <c r="A1" s="45" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -8205,7 +8211,7 @@
     </row>
     <row r="2">
       <c r="A2" s="82" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B2" s="82" t="s">
         <v>5</v>
@@ -8256,54 +8262,54 @@
     </row>
     <row r="3" ht="112.5" customHeight="1">
       <c r="A3" s="85" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="B3" s="72" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="C3" s="72" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="D3" s="72" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="E3" s="72" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="F3" s="72" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="G3" s="86" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="I3" s="72" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="K3" s="72" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4" ht="112.5" customHeight="1">
       <c r="A4" s="85" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="B4" s="72" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="C4" s="85" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="D4" s="72" t="s">
+        <v>476</v>
+      </c>
+      <c r="E4" s="72" t="s">
+        <v>477</v>
+      </c>
+      <c r="F4" s="72" t="s">
         <v>471</v>
       </c>
-      <c r="E4" s="72" t="s">
-        <v>472</v>
-      </c>
-      <c r="F4" s="72" t="s">
-        <v>466</v>
-      </c>
       <c r="G4" s="85" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="H4" s="70"/>
       <c r="I4" s="70"/>
@@ -8328,25 +8334,25 @@
     </row>
     <row r="5" ht="59.25" customHeight="1">
       <c r="A5" s="85" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="B5" s="72" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="C5" s="85" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="D5" s="72" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="E5" s="72" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="F5" s="72" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="G5" s="85" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="H5" s="70"/>
       <c r="I5" s="70"/>
@@ -8371,25 +8377,25 @@
     </row>
     <row r="6" ht="54.75" customHeight="1">
       <c r="A6" s="85" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="B6" s="72" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="C6" s="85" t="s">
+        <v>486</v>
+      </c>
+      <c r="D6" s="72" t="s">
         <v>481</v>
       </c>
-      <c r="D6" s="72" t="s">
-        <v>476</v>
-      </c>
       <c r="E6" s="72" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="F6" s="72" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="G6" s="85" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="H6" s="70"/>
       <c r="I6" s="70"/>
@@ -8414,323 +8420,323 @@
     </row>
     <row r="7" ht="114.75" customHeight="1">
       <c r="A7" s="85" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="B7" s="72" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="C7" s="72" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="D7" s="72" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="E7" s="72" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="F7" s="72" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="G7" s="72" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="I7" s="72" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="K7" s="72" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" ht="117.0" customHeight="1">
       <c r="A8" s="85" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="B8" s="72" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="C8" s="72" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="D8" s="72" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="E8" s="72" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="F8" s="72" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="G8" s="72" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="I8" s="72" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="K8" s="72" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" ht="114.75" customHeight="1">
       <c r="A9" s="85" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="B9" s="72" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="C9" s="85" t="s">
+        <v>498</v>
+      </c>
+      <c r="D9" s="72" t="s">
+        <v>491</v>
+      </c>
+      <c r="E9" s="72" t="s">
+        <v>499</v>
+      </c>
+      <c r="F9" s="72" t="s">
+        <v>471</v>
+      </c>
+      <c r="G9" s="72" t="s">
         <v>493</v>
       </c>
-      <c r="D9" s="72" t="s">
-        <v>486</v>
-      </c>
-      <c r="E9" s="72" t="s">
-        <v>494</v>
-      </c>
-      <c r="F9" s="72" t="s">
-        <v>466</v>
-      </c>
-      <c r="G9" s="72" t="s">
-        <v>488</v>
-      </c>
       <c r="I9" s="72" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="K9" s="72" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" ht="105.75" customHeight="1">
       <c r="A10" s="85" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="B10" s="72" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="C10" s="85" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="D10" s="72" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="E10" s="72" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F10" s="72" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="G10" s="85" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="I10" s="72" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="K10" s="72" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" ht="114.75" customHeight="1">
       <c r="A11" s="85" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="B11" s="72" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="C11" s="72" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="D11" s="72" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="E11" s="72" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="F11" s="72" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="G11" s="72" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="I11" s="72" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="K11" s="72" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
     </row>
     <row r="12" ht="117.75" customHeight="1">
       <c r="A12" s="85" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="B12" s="72" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="C12" s="72" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="D12" s="72" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="E12" s="72" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="F12" s="72" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="G12" s="72" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="I12" s="72" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="K12" s="72" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
     </row>
     <row r="13" ht="84.0" customHeight="1">
       <c r="A13" s="85" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B13" s="72" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="C13" s="72" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="D13" s="72" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="E13" s="72" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="F13" s="72" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="G13" s="72" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="I13" s="72" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="K13" s="72" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
     </row>
     <row r="14" ht="116.25" customHeight="1">
       <c r="A14" s="85" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="B14" s="72" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="C14" s="85" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="D14" s="72" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="E14" s="72" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="F14" s="72" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="G14" s="72" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="I14" s="72" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="K14" s="72" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="85" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="B15" s="72" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="C15" s="85" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="D15" s="72" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="E15" s="72" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F15" s="72" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="G15" s="85" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="I15" s="72" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="K15" s="72" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
     </row>
     <row r="16" ht="117.0" customHeight="1">
       <c r="A16" s="85" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="B16" s="72" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="C16" s="72" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="D16" s="72" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="E16" s="72" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="F16" s="72" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="G16" s="87" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="I16" s="72" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="K16" s="72" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
     </row>
     <row r="17" ht="49.5" customHeight="1">
       <c r="A17" s="85" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="B17" s="72" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="C17" s="85" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="D17" s="72" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="E17" s="72" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="F17" s="55" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="G17" s="85" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="H17" s="70"/>
       <c r="I17" s="72" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="J17" s="70"/>
       <c r="K17" s="72" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="L17" s="70"/>
       <c r="M17" s="70"/>
@@ -8751,33 +8757,33 @@
     </row>
     <row r="18" ht="113.25" customHeight="1">
       <c r="A18" s="85" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="B18" s="72" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="C18" s="85" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="D18" s="72" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="E18" s="72" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="F18" s="85" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="G18" s="85" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="H18" s="70"/>
       <c r="I18" s="72" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="J18" s="70"/>
       <c r="K18" s="72" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="L18" s="70"/>
       <c r="M18" s="70"/>
@@ -8798,33 +8804,33 @@
     </row>
     <row r="19" ht="76.5" customHeight="1">
       <c r="A19" s="85" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="B19" s="72" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="C19" s="85" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="D19" s="72" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="E19" s="72" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="F19" s="72" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="G19" s="88" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="H19" s="70"/>
       <c r="I19" s="72" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="J19" s="70"/>
       <c r="K19" s="85" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="L19" s="70"/>
       <c r="M19" s="70"/>
@@ -8845,33 +8851,33 @@
     </row>
     <row r="20" ht="90.75" customHeight="1">
       <c r="A20" s="85" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="B20" s="72" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="C20" s="85" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="D20" s="72" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="E20" s="72" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="F20" s="72" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="G20" s="88" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="H20" s="70"/>
       <c r="I20" s="72" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="J20" s="70"/>
       <c r="K20" s="72" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="L20" s="70"/>
       <c r="M20" s="70"/>
@@ -8892,33 +8898,33 @@
     </row>
     <row r="21" ht="86.25" customHeight="1">
       <c r="A21" s="85" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B21" s="72" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="C21" s="85" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="D21" s="72" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="E21" s="55" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="F21" s="72" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="G21" s="88" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="H21" s="70"/>
       <c r="I21" s="72" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="J21" s="70"/>
       <c r="K21" s="72" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="L21" s="70"/>
       <c r="M21" s="70"/>
@@ -8939,33 +8945,33 @@
     </row>
     <row r="22" ht="81.0" customHeight="1">
       <c r="A22" s="85" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="B22" s="72" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="C22" s="89" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="D22" s="72" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="E22" s="72" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="F22" s="72" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="G22" s="88" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="H22" s="70"/>
       <c r="I22" s="72" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="J22" s="70"/>
       <c r="K22" s="72" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="L22" s="70"/>
       <c r="M22" s="70"/>
@@ -8986,33 +8992,33 @@
     </row>
     <row r="23" ht="78.0" customHeight="1">
       <c r="A23" s="85" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="B23" s="72" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="C23" s="85" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="D23" s="72" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="E23" s="72" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="F23" s="72" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="G23" s="88" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="H23" s="70"/>
       <c r="I23" s="72" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="J23" s="70"/>
       <c r="K23" s="72" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="L23" s="70"/>
       <c r="M23" s="70"/>
@@ -9033,33 +9039,33 @@
     </row>
     <row r="24" ht="78.75" customHeight="1">
       <c r="A24" s="85" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="B24" s="72" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="C24" s="85" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="D24" s="72" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="E24" s="72" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="F24" s="72" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="G24" s="88" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="H24" s="70"/>
       <c r="I24" s="72" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="J24" s="70"/>
       <c r="K24" s="72" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="L24" s="70"/>
       <c r="M24" s="70"/>
@@ -9080,33 +9086,33 @@
     </row>
     <row r="25" ht="93.75" customHeight="1">
       <c r="A25" s="85" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="B25" s="72" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="C25" s="85" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="D25" s="90" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="E25" s="72" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="F25" s="72" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="G25" s="88" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="H25" s="70"/>
       <c r="I25" s="72" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="J25" s="70"/>
       <c r="K25" s="72" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="L25" s="70"/>
       <c r="M25" s="70"/>
@@ -9127,33 +9133,33 @@
     </row>
     <row r="26" ht="89.25" customHeight="1">
       <c r="A26" s="85" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="B26" s="70" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C26" s="85" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="D26" s="85" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="E26" s="85" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="F26" s="72" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="G26" s="87" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="H26" s="70"/>
       <c r="I26" s="72" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="J26" s="70"/>
       <c r="K26" s="72" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="L26" s="70"/>
       <c r="M26" s="70"/>
@@ -9174,33 +9180,33 @@
     </row>
     <row r="27" ht="84.75" customHeight="1">
       <c r="A27" s="85" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="B27" s="70" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C27" s="85" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="D27" s="85" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="E27" s="85" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="F27" s="72" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="G27" s="87" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="H27" s="70"/>
       <c r="I27" s="72" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="J27" s="70"/>
       <c r="K27" s="72" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="L27" s="70"/>
       <c r="M27" s="70"/>
@@ -9246,7 +9252,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="67" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B1" s="65" t="s">
         <v>5</v>
@@ -9296,72 +9302,72 @@
     </row>
     <row r="2" ht="50.25" customHeight="1">
       <c r="A2" s="16" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="J2" s="71" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="J3" s="71" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -9382,11 +9388,12 @@
     <col customWidth="1" min="1" max="1" width="27.63"/>
     <col customWidth="1" min="2" max="2" width="31.0"/>
     <col customWidth="1" min="3" max="3" width="42.38"/>
-    <col customWidth="1" min="4" max="4" width="25.25"/>
+    <col customWidth="1" min="4" max="4" width="30.63"/>
     <col customWidth="1" min="5" max="5" width="48.0"/>
     <col customWidth="1" min="6" max="6" width="39.0"/>
     <col customWidth="1" min="7" max="7" width="50.0"/>
-    <col customWidth="1" min="8" max="9" width="40.5"/>
+    <col customWidth="1" min="8" max="8" width="49.25"/>
+    <col customWidth="1" min="9" max="9" width="40.5"/>
     <col customWidth="1" min="10" max="10" width="23.13"/>
   </cols>
   <sheetData>
@@ -10290,8 +10297,12 @@
       <c r="G19" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
+      <c r="H19" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="J19" s="14" t="s">
         <v>24</v>
       </c>
@@ -10316,13 +10327,13 @@
     </row>
     <row r="20">
       <c r="A20" s="28" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B20" s="20" t="s">
         <v>111</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D20" s="20" t="s">
         <v>28</v>
@@ -10331,13 +10342,17 @@
         <v>113</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G20" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
+      <c r="H20" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="J20" s="20" t="s">
         <v>24</v>
       </c>
@@ -10362,13 +10377,13 @@
     </row>
     <row r="21" ht="174.75" customHeight="1">
       <c r="A21" s="14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>111</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>28</v>
@@ -10377,13 +10392,17 @@
         <v>113</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
+        <v>124</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="J21" s="14" t="s">
         <v>24</v>
       </c>
@@ -10408,13 +10427,13 @@
     </row>
     <row r="22" ht="174.75" customHeight="1">
       <c r="A22" s="20" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B22" s="20" t="s">
         <v>111</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>28</v>
@@ -10423,13 +10442,17 @@
         <v>113</v>
       </c>
       <c r="F22" s="26" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
+        <v>124</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="J22" s="20" t="s">
         <v>40</v>
       </c>
@@ -10452,30 +10475,30 @@
       <c r="Y22" s="23"/>
       <c r="Z22" s="23"/>
     </row>
-    <row r="23">
+    <row r="23" ht="83.25" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>28</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I23" s="17" t="s">
         <v>23</v>
@@ -10503,32 +10526,50 @@
       <c r="Z23" s="19"/>
     </row>
     <row r="24">
-      <c r="A24" s="29"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="29"/>
-      <c r="V24" s="29"/>
-      <c r="W24" s="29"/>
-      <c r="X24" s="29"/>
-      <c r="Y24" s="29"/>
-      <c r="Z24" s="29"/>
+      <c r="A24" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24" s="22">
+        <v>44707.0</v>
+      </c>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="23"/>
+      <c r="W24" s="23"/>
+      <c r="X24" s="23"/>
+      <c r="Y24" s="23"/>
+      <c r="Z24" s="23"/>
     </row>
     <row r="25">
       <c r="A25" s="29"/>
@@ -17640,7 +17681,7 @@
     </row>
     <row r="2">
       <c r="A2" s="35" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B2" s="36" t="s">
         <v>5</v>
@@ -17661,7 +17702,7 @@
         <v>10</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="I2" s="36" t="s">
         <v>12</v>
@@ -17691,31 +17732,31 @@
     </row>
     <row r="3" ht="62.25" customHeight="1">
       <c r="A3" s="14" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="G3" s="41" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="I3" s="42" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="J3" s="14" t="s">
         <v>24</v>
@@ -17742,28 +17783,28 @@
     </row>
     <row r="4" ht="62.25" customHeight="1">
       <c r="A4" s="20" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B4" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="E4" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="D4" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>139</v>
-      </c>
       <c r="F4" s="20" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>23</v>
@@ -17793,28 +17834,28 @@
     </row>
     <row r="5" ht="62.25" customHeight="1">
       <c r="A5" s="16" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F5" s="43" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="I5" s="17" t="s">
         <v>23</v>
@@ -17844,28 +17885,28 @@
     </row>
     <row r="6" ht="62.25" customHeight="1">
       <c r="A6" s="20" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="I6" s="17" t="s">
         <v>23</v>
@@ -17895,28 +17936,28 @@
     </row>
     <row r="7" ht="102.75" customHeight="1">
       <c r="A7" s="16" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="F7" s="43" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="I7" s="17" t="s">
         <v>23</v>
@@ -17946,28 +17987,28 @@
     </row>
     <row r="8" ht="99.75" customHeight="1">
       <c r="A8" s="20" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="I8" s="17" t="s">
         <v>23</v>
@@ -18024,7 +18065,7 @@
   <sheetData>
     <row r="1" ht="75.0" customHeight="1">
       <c r="A1" s="45" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -18054,7 +18095,7 @@
     </row>
     <row r="2">
       <c r="A2" s="46" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>5</v>
@@ -18075,7 +18116,7 @@
         <v>10</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>12</v>
@@ -18105,28 +18146,28 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E3" s="50" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="I3" s="17" t="s">
         <v>23</v>
@@ -18154,28 +18195,28 @@
     </row>
     <row r="4">
       <c r="A4" s="20" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C4" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="D4" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="D4" s="20" t="s">
-        <v>180</v>
-      </c>
       <c r="E4" s="52" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="H4" s="53" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>23</v>
@@ -18203,28 +18244,28 @@
     </row>
     <row r="5">
       <c r="A5" s="16" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E5" s="55" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="H5" s="56" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="I5" s="17" t="s">
         <v>23</v>
@@ -18235,28 +18276,28 @@
     </row>
     <row r="6">
       <c r="A6" s="28" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E6" s="57" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="H6" s="53" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="I6" s="17" t="s">
         <v>23</v>
@@ -18284,28 +18325,28 @@
     </row>
     <row r="7">
       <c r="A7" s="58" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E7" s="55" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="G7" s="59" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="H7" s="56" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="I7" s="17" t="s">
         <v>23</v>
@@ -18316,28 +18357,28 @@
     </row>
     <row r="8">
       <c r="A8" s="28" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E8" s="57" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="G8" s="59" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="H8" s="53" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="I8" s="17" t="s">
         <v>23</v>
@@ -18365,28 +18406,28 @@
     </row>
     <row r="9">
       <c r="A9" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="E9" s="57" t="s">
+        <v>229</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="G9" s="59" t="s">
+        <v>225</v>
+      </c>
+      <c r="H9" s="53" t="s">
         <v>219</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>221</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="E9" s="57" t="s">
-        <v>222</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="G9" s="59" t="s">
-        <v>218</v>
-      </c>
-      <c r="H9" s="53" t="s">
-        <v>212</v>
       </c>
       <c r="I9" s="17" t="s">
         <v>23</v>
@@ -29352,7 +29393,7 @@
   <sheetData>
     <row r="1" ht="60.75" customHeight="1">
       <c r="A1" s="45" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -29383,13 +29424,13 @@
     </row>
     <row r="2">
       <c r="A2" s="35" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B2" s="36" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D2" s="36" t="s">
         <v>7</v>
@@ -29404,7 +29445,7 @@
         <v>10</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="I2" s="36" t="s">
         <v>12</v>
@@ -29434,34 +29475,34 @@
     </row>
     <row r="3" ht="87.0" customHeight="1">
       <c r="A3" s="58" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="E3" s="43" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="I3" s="17" t="s">
         <v>23</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="K3" s="44">
         <v>44700.0</v>
@@ -29485,34 +29526,34 @@
     </row>
     <row r="4" ht="91.5" customHeight="1">
       <c r="A4" s="20" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="B4" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="D4" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>235</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>227</v>
-      </c>
       <c r="E4" s="26" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="G4" s="62" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>23</v>
       </c>
       <c r="J4" s="20" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="K4" s="22">
         <v>44700.0</v>
@@ -29536,34 +29577,34 @@
     </row>
     <row r="5" ht="128.25" customHeight="1">
       <c r="A5" s="16" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="I5" s="17" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="K5" s="44">
         <v>44700.0</v>
@@ -29587,34 +29628,34 @@
     </row>
     <row r="6" ht="118.5" customHeight="1">
       <c r="A6" s="20" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="B6" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="G6" s="62" t="s">
         <v>244</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>247</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>248</v>
-      </c>
-      <c r="G6" s="62" t="s">
-        <v>237</v>
-      </c>
       <c r="H6" s="20" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="I6" s="42" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="J6" s="20" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="K6" s="22">
         <v>44703.0</v>
@@ -29638,34 +29679,34 @@
     </row>
     <row r="7" ht="81.0" customHeight="1">
       <c r="A7" s="16" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="C7" s="58" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="E7" s="43" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="G7" s="62" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="I7" s="17" t="s">
         <v>23</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="K7" s="44">
         <v>44703.0</v>
@@ -29689,34 +29730,34 @@
     </row>
     <row r="8" ht="81.0" customHeight="1">
       <c r="A8" s="20" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="I8" s="17" t="s">
         <v>23</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="K8" s="22">
         <v>44703.0</v>
@@ -58592,13 +58633,13 @@
     </row>
     <row r="2">
       <c r="A2" s="35" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B2" s="36" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D2" s="36" t="s">
         <v>7</v>
@@ -58613,7 +58654,7 @@
         <v>10</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="I2" s="36" t="s">
         <v>12</v>
@@ -58643,25 +58684,25 @@
     </row>
     <row r="3" ht="96.75" customHeight="1">
       <c r="A3" s="16" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="E3" s="43" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="H3" s="16"/>
       <c r="I3" s="3"/>
@@ -58688,25 +58729,25 @@
     </row>
     <row r="4">
       <c r="A4" s="20" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="H4" s="20"/>
       <c r="I4" s="23"/>
@@ -61823,7 +61864,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="65" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B1" s="65" t="s">
         <v>5</v>
@@ -61858,25 +61899,25 @@
     </row>
     <row r="2">
       <c r="A2" s="58" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="16" t="s">
@@ -61889,25 +61930,25 @@
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="16" t="s">
@@ -74906,7 +74947,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="67" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B1" s="65" t="s">
         <v>5</v>
@@ -74956,142 +74997,142 @@
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="J2" s="71" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>302</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="C3" s="58" t="s">
+      <c r="E3" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>288</v>
-      </c>
       <c r="F3" s="16" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="J3" s="71" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="C4" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="G4" s="58" t="s">
+        <v>308</v>
+      </c>
+      <c r="H4" s="58" t="s">
+        <v>308</v>
+      </c>
+      <c r="I4" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="E4" s="16" t="s">
+      <c r="J4" s="71" t="s">
         <v>299</v>
       </c>
-      <c r="F4" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="G4" s="58" t="s">
-        <v>301</v>
-      </c>
-      <c r="H4" s="58" t="s">
-        <v>301</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="J4" s="71" t="s">
-        <v>292</v>
-      </c>
       <c r="K4" s="16" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="16" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="J5" s="71" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8">
@@ -75118,13 +75159,13 @@
     <col customWidth="1" min="4" max="4" width="29.38"/>
     <col customWidth="1" min="5" max="5" width="22.13"/>
     <col customWidth="1" min="6" max="6" width="29.0"/>
-    <col customWidth="1" min="7" max="7" width="34.75"/>
+    <col customWidth="1" min="7" max="7" width="44.75"/>
     <col customWidth="1" min="8" max="8" width="36.5"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="65" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B1" s="73" t="s">
         <v>5</v>
@@ -75174,35 +75215,37 @@
     </row>
     <row r="2" ht="102.0" customHeight="1">
       <c r="A2" s="76" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="B2" s="77" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="C2" s="77" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="D2" s="76" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="E2" s="76" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="F2" s="76" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="G2" s="76" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="H2" s="76" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="I2" s="77" t="s">
-        <v>291</v>
-      </c>
-      <c r="J2" s="77"/>
+        <v>298</v>
+      </c>
+      <c r="J2" s="76" t="s">
+        <v>299</v>
+      </c>
       <c r="K2" s="77" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="L2" s="70"/>
       <c r="M2" s="70"/>
@@ -75222,33 +75265,37 @@
     </row>
     <row r="3" ht="52.5" customHeight="1">
       <c r="A3" s="76" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="B3" s="77" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="C3" s="76" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="D3" s="76" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="E3" s="76" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="F3" s="76" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="G3" s="76" t="s">
-        <v>317</v>
-      </c>
-      <c r="H3" s="77"/>
+        <v>325</v>
+      </c>
+      <c r="H3" s="76" t="s">
+        <v>325</v>
+      </c>
       <c r="I3" s="77" t="s">
-        <v>291</v>
-      </c>
-      <c r="J3" s="77"/>
+        <v>298</v>
+      </c>
+      <c r="J3" s="76" t="s">
+        <v>299</v>
+      </c>
       <c r="K3" s="76" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="L3" s="70"/>
       <c r="M3" s="70"/>
@@ -75268,33 +75315,37 @@
     </row>
     <row r="4">
       <c r="A4" s="76" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="B4" s="77" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="C4" s="76" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="D4" s="76" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="E4" s="76" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="F4" s="76" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="G4" s="76" t="s">
-        <v>323</v>
-      </c>
-      <c r="H4" s="77"/>
+        <v>331</v>
+      </c>
+      <c r="H4" s="76" t="s">
+        <v>332</v>
+      </c>
       <c r="I4" s="77" t="s">
-        <v>291</v>
-      </c>
-      <c r="J4" s="77"/>
-      <c r="K4" s="76" t="s">
-        <v>318</v>
+        <v>298</v>
+      </c>
+      <c r="J4" s="76" t="s">
+        <v>299</v>
+      </c>
+      <c r="K4" s="78" t="s">
+        <v>300</v>
       </c>
       <c r="L4" s="70"/>
       <c r="M4" s="70"/>
@@ -75314,33 +75365,37 @@
     </row>
     <row r="5">
       <c r="A5" s="76" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="B5" s="77" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="C5" s="76" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="D5" s="76" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="E5" s="76" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="F5" s="76" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="G5" s="76" t="s">
-        <v>327</v>
-      </c>
-      <c r="H5" s="77"/>
+        <v>336</v>
+      </c>
+      <c r="H5" s="76" t="s">
+        <v>332</v>
+      </c>
       <c r="I5" s="77" t="s">
-        <v>291</v>
-      </c>
-      <c r="J5" s="77"/>
+        <v>298</v>
+      </c>
+      <c r="J5" s="76" t="s">
+        <v>299</v>
+      </c>
       <c r="K5" s="78" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="L5" s="70"/>
       <c r="M5" s="70"/>
@@ -75360,33 +75415,37 @@
     </row>
     <row r="6">
       <c r="A6" s="76" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="B6" s="77" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="C6" s="76" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="D6" s="76" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="E6" s="76" t="s">
+        <v>339</v>
+      </c>
+      <c r="F6" s="76" t="s">
         <v>330</v>
       </c>
-      <c r="F6" s="76" t="s">
-        <v>322</v>
-      </c>
       <c r="G6" s="76" t="s">
-        <v>331</v>
-      </c>
-      <c r="H6" s="77"/>
+        <v>336</v>
+      </c>
+      <c r="H6" s="76" t="s">
+        <v>332</v>
+      </c>
       <c r="I6" s="77" t="s">
-        <v>291</v>
-      </c>
-      <c r="J6" s="77"/>
-      <c r="K6" s="78" t="s">
-        <v>293</v>
+        <v>298</v>
+      </c>
+      <c r="J6" s="76" t="s">
+        <v>299</v>
+      </c>
+      <c r="K6" s="79" t="s">
+        <v>326</v>
       </c>
       <c r="L6" s="70"/>
       <c r="M6" s="70"/>
@@ -75406,33 +75465,37 @@
     </row>
     <row r="7">
       <c r="A7" s="76" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="B7" s="77" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="C7" s="76" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="D7" s="76" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="E7" s="76" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="F7" s="76" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="G7" s="76" t="s">
         <v>331</v>
       </c>
-      <c r="H7" s="77"/>
+      <c r="H7" s="76" t="s">
+        <v>332</v>
+      </c>
       <c r="I7" s="77" t="s">
-        <v>291</v>
-      </c>
-      <c r="J7" s="77"/>
+        <v>298</v>
+      </c>
+      <c r="J7" s="76" t="s">
+        <v>299</v>
+      </c>
       <c r="K7" s="79" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="L7" s="70"/>
       <c r="M7" s="70"/>
@@ -75452,33 +75515,37 @@
     </row>
     <row r="8">
       <c r="A8" s="76" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="B8" s="77" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="C8" s="76" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="D8" s="76" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="E8" s="76" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="F8" s="76" t="s">
-        <v>322</v>
-      </c>
-      <c r="G8" s="76" t="s">
-        <v>327</v>
-      </c>
-      <c r="H8" s="77"/>
+        <v>346</v>
+      </c>
+      <c r="G8" s="80" t="s">
+        <v>347</v>
+      </c>
+      <c r="H8" s="76" t="s">
+        <v>348</v>
+      </c>
       <c r="I8" s="77" t="s">
-        <v>291</v>
-      </c>
-      <c r="J8" s="77"/>
-      <c r="K8" s="79" t="s">
-        <v>318</v>
+        <v>298</v>
+      </c>
+      <c r="J8" s="76" t="s">
+        <v>299</v>
+      </c>
+      <c r="K8" s="78" t="s">
+        <v>300</v>
       </c>
       <c r="L8" s="70"/>
       <c r="M8" s="70"/>
@@ -75498,33 +75565,37 @@
     </row>
     <row r="9">
       <c r="A9" s="76" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="B9" s="77" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="C9" s="76" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="D9" s="76" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="E9" s="76" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="F9" s="76" t="s">
-        <v>341</v>
-      </c>
-      <c r="G9" s="76" t="s">
-        <v>342</v>
-      </c>
-      <c r="H9" s="77"/>
+        <v>352</v>
+      </c>
+      <c r="G9" s="80" t="s">
+        <v>347</v>
+      </c>
+      <c r="H9" s="76" t="s">
+        <v>348</v>
+      </c>
       <c r="I9" s="77" t="s">
-        <v>291</v>
-      </c>
-      <c r="J9" s="77"/>
+        <v>298</v>
+      </c>
+      <c r="J9" s="76" t="s">
+        <v>299</v>
+      </c>
       <c r="K9" s="78" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="L9" s="70"/>
       <c r="M9" s="70"/>
@@ -75544,33 +75615,35 @@
     </row>
     <row r="10">
       <c r="A10" s="76" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="B10" s="77" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="C10" s="76" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="D10" s="76" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="E10" s="76" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="F10" s="76" t="s">
-        <v>346</v>
-      </c>
-      <c r="G10" s="76" t="s">
-        <v>347</v>
-      </c>
-      <c r="H10" s="77"/>
+        <v>356</v>
+      </c>
+      <c r="G10" s="80" t="s">
+        <v>357</v>
+      </c>
+      <c r="H10" s="76" t="s">
+        <v>358</v>
+      </c>
       <c r="I10" s="77" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="J10" s="77"/>
-      <c r="K10" s="78" t="s">
-        <v>293</v>
+      <c r="K10" s="79" t="s">
+        <v>326</v>
       </c>
       <c r="L10" s="70"/>
       <c r="M10" s="70"/>
@@ -75590,33 +75663,33 @@
     </row>
     <row r="11">
       <c r="A11" s="76" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="B11" s="77" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="C11" s="76" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="D11" s="76" t="s">
-        <v>309</v>
+        <v>361</v>
       </c>
       <c r="E11" s="76" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="F11" s="76" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="G11" s="76" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="H11" s="77"/>
       <c r="I11" s="77" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="J11" s="77"/>
-      <c r="K11" s="79" t="s">
-        <v>318</v>
+      <c r="K11" s="78" t="s">
+        <v>300</v>
       </c>
       <c r="L11" s="70"/>
       <c r="M11" s="70"/>
@@ -75634,35 +75707,35 @@
       <c r="Y11" s="70"/>
       <c r="Z11" s="70"/>
     </row>
-    <row r="12">
+    <row r="12" ht="76.5" customHeight="1">
       <c r="A12" s="76" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="B12" s="77" t="s">
-        <v>307</v>
-      </c>
-      <c r="C12" s="76" t="s">
-        <v>354</v>
+        <v>314</v>
+      </c>
+      <c r="C12" s="79" t="s">
+        <v>365</v>
       </c>
       <c r="D12" s="76" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="E12" s="76" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="F12" s="76" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="G12" s="76" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="H12" s="77"/>
       <c r="I12" s="77" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="J12" s="77"/>
       <c r="K12" s="78" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="L12" s="70"/>
       <c r="M12" s="70"/>
@@ -75680,35 +75753,35 @@
       <c r="Y12" s="70"/>
       <c r="Z12" s="70"/>
     </row>
-    <row r="13" ht="76.5" customHeight="1">
+    <row r="13" ht="72.0" customHeight="1">
       <c r="A13" s="76" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="B13" s="77" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="C13" s="79" t="s">
-        <v>359</v>
-      </c>
-      <c r="D13" s="76" t="s">
-        <v>355</v>
+        <v>369</v>
+      </c>
+      <c r="D13" s="58" t="s">
+        <v>370</v>
       </c>
       <c r="E13" s="76" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="F13" s="76" t="s">
-        <v>322</v>
-      </c>
-      <c r="G13" s="76" t="s">
-        <v>361</v>
+        <v>372</v>
+      </c>
+      <c r="G13" s="80" t="s">
+        <v>373</v>
       </c>
       <c r="H13" s="77"/>
       <c r="I13" s="77" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="J13" s="77"/>
-      <c r="K13" s="78" t="s">
-        <v>293</v>
+      <c r="K13" s="77" t="s">
+        <v>374</v>
       </c>
       <c r="L13" s="70"/>
       <c r="M13" s="70"/>
@@ -75726,35 +75799,35 @@
       <c r="Y13" s="70"/>
       <c r="Z13" s="70"/>
     </row>
-    <row r="14" ht="72.0" customHeight="1">
+    <row r="14">
       <c r="A14" s="76" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="B14" s="77" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="C14" s="79" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="D14" s="58" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="E14" s="76" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="F14" s="76" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="G14" s="80" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="H14" s="77"/>
       <c r="I14" s="77" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="J14" s="77"/>
       <c r="K14" s="77" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="L14" s="70"/>
       <c r="M14" s="70"/>
@@ -75774,33 +75847,33 @@
     </row>
     <row r="15">
       <c r="A15" s="76" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="B15" s="77" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="C15" s="79" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="D15" s="58" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="E15" s="76" t="s">
+        <v>383</v>
+      </c>
+      <c r="F15" s="76" t="s">
         <v>372</v>
       </c>
-      <c r="F15" s="76" t="s">
-        <v>366</v>
-      </c>
       <c r="G15" s="80" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="H15" s="77"/>
       <c r="I15" s="77" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="J15" s="77"/>
-      <c r="K15" s="77" t="s">
-        <v>368</v>
+      <c r="K15" s="76" t="s">
+        <v>326</v>
       </c>
       <c r="L15" s="70"/>
       <c r="M15" s="70"/>
@@ -75820,33 +75893,33 @@
     </row>
     <row r="16">
       <c r="A16" s="76" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="B16" s="77" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="C16" s="79" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="D16" s="58" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="E16" s="76" t="s">
-        <v>377</v>
+        <v>317</v>
       </c>
       <c r="F16" s="76" t="s">
-        <v>366</v>
-      </c>
-      <c r="G16" s="80" t="s">
-        <v>378</v>
+        <v>372</v>
+      </c>
+      <c r="G16" s="76" t="s">
+        <v>387</v>
       </c>
       <c r="H16" s="77"/>
       <c r="I16" s="77" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="J16" s="77"/>
-      <c r="K16" s="76" t="s">
-        <v>318</v>
+      <c r="K16" s="77" t="s">
+        <v>374</v>
       </c>
       <c r="L16" s="70"/>
       <c r="M16" s="70"/>
@@ -75865,35 +75938,17 @@
       <c r="Z16" s="70"/>
     </row>
     <row r="17">
-      <c r="A17" s="76" t="s">
-        <v>379</v>
-      </c>
-      <c r="B17" s="77" t="s">
-        <v>307</v>
-      </c>
-      <c r="C17" s="79" t="s">
-        <v>380</v>
-      </c>
-      <c r="D17" s="58" t="s">
-        <v>376</v>
-      </c>
-      <c r="E17" s="76" t="s">
-        <v>381</v>
-      </c>
-      <c r="F17" s="76" t="s">
-        <v>366</v>
-      </c>
-      <c r="G17" s="76" t="s">
-        <v>382</v>
-      </c>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77" t="s">
-        <v>291</v>
-      </c>
-      <c r="J17" s="77"/>
-      <c r="K17" s="77" t="s">
-        <v>368</v>
-      </c>
+      <c r="A17" s="70"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
       <c r="L17" s="70"/>
       <c r="M17" s="70"/>
       <c r="N17" s="70"/>
@@ -75966,34 +76021,6 @@
       <c r="Y19" s="70"/>
       <c r="Z19" s="70"/>
     </row>
-    <row r="20">
-      <c r="A20" s="70"/>
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="70"/>
-      <c r="N20" s="70"/>
-      <c r="O20" s="70"/>
-      <c r="P20" s="70"/>
-      <c r="Q20" s="70"/>
-      <c r="R20" s="70"/>
-      <c r="S20" s="70"/>
-      <c r="T20" s="70"/>
-      <c r="U20" s="70"/>
-      <c r="V20" s="70"/>
-      <c r="W20" s="70"/>
-      <c r="X20" s="70"/>
-      <c r="Y20" s="70"/>
-      <c r="Z20" s="70"/>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
